--- a/OC.xlsx
+++ b/OC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joelt/datahere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CD1B5E-E87A-AE47-922F-05B2998E75CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9F4DBC-D85A-DA45-86D0-8B4ADF5CBEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="2" xr2:uid="{55C9DBE8-2E0B-4CF7-8DCC-4471D9565195}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="18980" windowHeight="12580" firstSheet="2" activeTab="14" xr2:uid="{55C9DBE8-2E0B-4CF7-8DCC-4471D9565195}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="95">
   <si>
     <t>ORANGE</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>US FOREST SERVICE</t>
-  </si>
-  <si>
-    <t>ORANGE  Total</t>
   </si>
   <si>
     <t>US FISH &amp; WILDLIFE SERVICE</t>
@@ -4386,16 +4383,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4753,36 +4750,36 @@
   <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5632,7 +5629,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="4">
         <v>6.18</v>
@@ -5723,7 +5720,7 @@
     </row>
     <row r="41" spans="1:20" ht="15" customHeight="1">
       <c r="B41" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="4">
         <v>0</v>
@@ -5791,7 +5788,7 @@
     </row>
     <row r="43" spans="1:20" ht="16" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C43" s="48">
         <v>42.73</v>
@@ -5847,8 +5844,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5858,29 +5855,29 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="62" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="E1" s="63" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>69</v>
       </c>
       <c r="F1" s="63"/>
       <c r="G1" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="I1" s="63" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="63" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -6608,7 +6605,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="74">
         <v>10.7</v>
@@ -6637,7 +6634,7 @@
     </row>
     <row r="40" spans="1:15" ht="15" customHeight="1">
       <c r="B40" s="73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="74"/>
       <c r="D40" s="74">
@@ -6739,7 +6736,7 @@
     </row>
     <row r="44" spans="1:15" ht="16" thickBot="1">
       <c r="A44" s="75" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C44" s="76">
         <v>43.79</v>
@@ -6782,29 +6779,29 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="62" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="E1" s="63" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>69</v>
       </c>
       <c r="F1" s="63"/>
       <c r="G1" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="I1" s="63" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="63" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -6814,7 +6811,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="66" t="s">
         <v>2</v>
@@ -7561,10 +7558,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="68">
         <v>6.0529999999999999</v>
@@ -7635,7 +7632,7 @@
     <row r="41" spans="1:9">
       <c r="A41" s="66"/>
       <c r="B41" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="68"/>
       <c r="D41" s="68">
@@ -7687,7 +7684,7 @@
     </row>
     <row r="44" spans="1:9" ht="16" thickBot="1">
       <c r="A44" s="69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" s="66"/>
       <c r="C44" s="70">
@@ -7721,7 +7718,7 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -7729,29 +7726,29 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7761,7 +7758,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>2</v>
@@ -8508,10 +8505,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="18">
         <v>6.05</v>
@@ -8582,7 +8579,7 @@
     <row r="41" spans="1:9">
       <c r="A41" s="17"/>
       <c r="B41" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18">
@@ -8634,7 +8631,7 @@
     </row>
     <row r="44" spans="1:9" ht="16" thickBot="1">
       <c r="A44" s="59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="61">
@@ -8669,36 +8666,36 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -8708,7 +8705,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -8791,7 +8788,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22">
@@ -8811,7 +8808,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="B8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22">
@@ -8831,7 +8828,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22">
@@ -8975,7 +8972,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22">
@@ -8995,7 +8992,7 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22">
@@ -9015,7 +9012,7 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="22">
@@ -9235,7 +9232,7 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="22">
@@ -9255,7 +9252,7 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="22">
@@ -9295,7 +9292,7 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="22">
@@ -9335,7 +9332,7 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="22">
@@ -9379,7 +9376,7 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="22"/>
       <c r="D36" s="22">
@@ -9419,7 +9416,7 @@
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" s="22">
         <v>6.1199999999999992</v>
@@ -9483,7 +9480,7 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" s="22"/>
       <c r="D41" s="22">
@@ -9571,7 +9568,7 @@
     </row>
     <row r="45" spans="2:9">
       <c r="B45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="22">
@@ -9615,7 +9612,7 @@
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47" s="22"/>
       <c r="D47" s="22">
@@ -9635,7 +9632,7 @@
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="22">
@@ -9675,7 +9672,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="B50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="22">
@@ -9755,7 +9752,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="22">
@@ -9804,10 +9801,10 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" s="22">
         <v>6.1199999999999992</v>
@@ -9875,7 +9872,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C60" s="22"/>
       <c r="D60" s="22">
@@ -9895,7 +9892,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="22"/>
       <c r="D61" s="22">
@@ -9915,7 +9912,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62" s="22"/>
       <c r="D62" s="22">
@@ -9960,7 +9957,7 @@
     </row>
     <row r="65" spans="1:9" ht="16" thickBot="1">
       <c r="A65" s="59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65" s="60">
         <f>SUM(C2:C63)</f>
@@ -9997,37 +9994,37 @@
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -10037,7 +10034,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>2</v>
@@ -10784,10 +10781,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" s="81">
         <v>1.25</v>
@@ -10812,7 +10809,7 @@
     <row r="39" spans="1:9">
       <c r="A39" s="27"/>
       <c r="B39" s="80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="81">
         <v>6.05</v>
@@ -10883,7 +10880,7 @@
     <row r="42" spans="1:9">
       <c r="A42" s="27"/>
       <c r="B42" s="80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" s="81"/>
       <c r="D42" s="81">
@@ -10904,7 +10901,7 @@
     <row r="43" spans="1:9">
       <c r="A43" s="27"/>
       <c r="B43" s="80" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="81"/>
       <c r="D43" s="81">
@@ -10925,7 +10922,7 @@
     <row r="44" spans="1:9">
       <c r="A44" s="27"/>
       <c r="B44" s="80" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="81"/>
       <c r="D44" s="81">
@@ -10977,7 +10974,7 @@
     </row>
     <row r="47" spans="1:9" ht="16" thickBot="1">
       <c r="A47" s="83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" s="83"/>
       <c r="C47" s="84">
@@ -11223,29 +11220,29 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="93" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -11255,7 +11252,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="94" t="s">
         <v>2</v>
@@ -11877,7 +11874,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="94" t="s">
         <v>32</v>
@@ -11899,7 +11896,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="94" t="s">
         <v>33</v>
@@ -11921,7 +11918,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="94" t="s">
         <v>34</v>
@@ -11943,7 +11940,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="94" t="s">
         <v>35</v>
@@ -11975,10 +11972,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="94" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="39">
         <v>16.34</v>
@@ -12001,7 +11998,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="94" t="s">
         <v>37</v>
@@ -12027,7 +12024,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" s="94" t="s">
         <v>38</v>
@@ -12049,10 +12046,10 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="94" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="39">
         <v>17.494</v>
@@ -12072,7 +12069,7 @@
     <row r="42" spans="1:9">
       <c r="A42" s="55"/>
       <c r="B42" s="94" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="39"/>
       <c r="D42" s="39">
@@ -12091,10 +12088,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="94" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="39"/>
       <c r="D43" s="39">
@@ -12124,7 +12121,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="96"/>
       <c r="C45" s="91">
@@ -12164,29 +12161,29 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -12196,7 +12193,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -12219,7 +12216,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -12242,7 +12239,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -12265,7 +12262,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -12288,7 +12285,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -12311,7 +12308,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -12334,7 +12331,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -12357,7 +12354,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -12380,7 +12377,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -12403,7 +12400,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -12426,7 +12423,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -12449,7 +12446,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -12472,7 +12469,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
@@ -12495,7 +12492,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -12518,7 +12515,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -12541,7 +12538,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -12564,7 +12561,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -12587,7 +12584,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -12610,7 +12607,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -12633,7 +12630,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -12656,7 +12653,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -12679,7 +12676,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
@@ -12702,7 +12699,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -12725,7 +12722,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -12748,7 +12745,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
@@ -12771,7 +12768,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -12794,7 +12791,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
@@ -12817,7 +12814,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
@@ -12840,7 +12837,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -12863,7 +12860,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
@@ -12888,7 +12885,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
         <v>28</v>
@@ -12911,7 +12908,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
@@ -12934,7 +12931,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
@@ -12957,7 +12954,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
@@ -12991,7 +12988,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
@@ -13018,7 +13015,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
@@ -13041,10 +13038,10 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="22">
         <v>14.324999999999998</v>
@@ -13068,10 +13065,10 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="22"/>
       <c r="D41" s="22">
@@ -13091,10 +13088,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="37">
         <v>10.042</v>
@@ -13118,7 +13115,7 @@
     </row>
     <row r="44" spans="1:9" ht="16" thickBot="1">
       <c r="A44" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" s="98"/>
       <c r="C44" s="99">
@@ -13169,29 +13166,29 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -13201,7 +13198,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>2</v>
@@ -13224,7 +13221,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>3</v>
@@ -13247,7 +13244,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>4</v>
@@ -13270,7 +13267,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>5</v>
@@ -13293,7 +13290,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>6</v>
@@ -13316,7 +13313,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>7</v>
@@ -13339,7 +13336,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>8</v>
@@ -13362,7 +13359,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>9</v>
@@ -13385,7 +13382,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>10</v>
@@ -13408,7 +13405,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>11</v>
@@ -13431,7 +13428,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>12</v>
@@ -13454,7 +13451,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="29" t="s">
         <v>13</v>
@@ -13477,7 +13474,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="29" t="s">
         <v>14</v>
@@ -13500,7 +13497,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="29" t="s">
         <v>16</v>
@@ -13523,7 +13520,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="29" t="s">
         <v>17</v>
@@ -13546,7 +13543,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="29" t="s">
         <v>18</v>
@@ -13569,7 +13566,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="29" t="s">
         <v>19</v>
@@ -13592,7 +13589,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>20</v>
@@ -13615,7 +13612,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>21</v>
@@ -13638,7 +13635,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>22</v>
@@ -13661,7 +13658,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="29" t="s">
         <v>23</v>
@@ -13684,7 +13681,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>24</v>
@@ -13707,7 +13704,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="29" t="s">
         <v>0</v>
@@ -13730,7 +13727,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>25</v>
@@ -13753,7 +13750,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="29" t="s">
         <v>26</v>
@@ -13776,7 +13773,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="29" t="s">
         <v>27</v>
@@ -13803,7 +13800,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>28</v>
@@ -13826,7 +13823,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="29" t="s">
         <v>29</v>
@@ -13849,7 +13846,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="29" t="s">
         <v>30</v>
@@ -13872,7 +13869,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="29" t="s">
         <v>31</v>
@@ -13895,7 +13892,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="29" t="s">
         <v>32</v>
@@ -13918,7 +13915,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>33</v>
@@ -13941,7 +13938,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>34</v>
@@ -13964,7 +13961,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="29" t="s">
         <v>35</v>
@@ -13998,10 +13995,10 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="28"/>
       <c r="D38" s="28">
@@ -14021,7 +14018,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="29" t="s">
         <v>37</v>
@@ -14065,10 +14062,10 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="28">
         <v>14.407999999999994</v>
@@ -14092,10 +14089,10 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" s="28"/>
       <c r="D42" s="28">
@@ -14115,10 +14112,10 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" s="100">
         <v>11.295000000000002</v>
@@ -14142,7 +14139,7 @@
     </row>
     <row r="45" spans="1:11" ht="16" thickBot="1">
       <c r="A45" s="103" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="103"/>
       <c r="C45" s="101">
@@ -14424,29 +14421,29 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="93" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -14456,7 +14453,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="55" t="s">
         <v>2</v>
@@ -14479,7 +14476,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="55" t="s">
         <v>3</v>
@@ -14502,7 +14499,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="55" t="s">
         <v>4</v>
@@ -14525,7 +14522,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="55" t="s">
         <v>5</v>
@@ -14548,7 +14545,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="55" t="s">
         <v>6</v>
@@ -14571,7 +14568,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="55" t="s">
         <v>7</v>
@@ -14594,7 +14591,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="55" t="s">
         <v>8</v>
@@ -14617,7 +14614,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="55" t="s">
         <v>9</v>
@@ -14640,7 +14637,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="55" t="s">
         <v>10</v>
@@ -14663,7 +14660,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="55" t="s">
         <v>11</v>
@@ -14686,7 +14683,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="55" t="s">
         <v>12</v>
@@ -14709,7 +14706,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="55" t="s">
         <v>13</v>
@@ -14732,7 +14729,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="55" t="s">
         <v>14</v>
@@ -14755,7 +14752,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="55" t="s">
         <v>16</v>
@@ -14778,7 +14775,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="55" t="s">
         <v>17</v>
@@ -14801,7 +14798,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="55" t="s">
         <v>18</v>
@@ -14824,7 +14821,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="55" t="s">
         <v>19</v>
@@ -14847,7 +14844,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="55" t="s">
         <v>20</v>
@@ -14870,7 +14867,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="55" t="s">
         <v>21</v>
@@ -14893,7 +14890,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="55" t="s">
         <v>22</v>
@@ -14916,7 +14913,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="55" t="s">
         <v>23</v>
@@ -14939,7 +14936,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="55" t="s">
         <v>24</v>
@@ -14962,7 +14959,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="55" t="s">
         <v>0</v>
@@ -14985,7 +14982,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>25</v>
@@ -15008,7 +15005,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="55" t="s">
         <v>26</v>
@@ -15031,7 +15028,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="55" t="s">
         <v>27</v>
@@ -15058,7 +15055,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="55" t="s">
         <v>28</v>
@@ -15081,7 +15078,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="55" t="s">
         <v>29</v>
@@ -15104,7 +15101,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="55" t="s">
         <v>30</v>
@@ -15127,7 +15124,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="55" t="s">
         <v>31</v>
@@ -15150,7 +15147,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="55" t="s">
         <v>32</v>
@@ -15173,7 +15170,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="55" t="s">
         <v>33</v>
@@ -15196,7 +15193,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="55" t="s">
         <v>34</v>
@@ -15219,7 +15216,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="55" t="s">
         <v>35</v>
@@ -15253,10 +15250,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="56">
         <v>11.295000000000002</v>
@@ -15280,10 +15277,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="56"/>
       <c r="D39" s="56">
@@ -15303,7 +15300,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" s="55" t="s">
         <v>37</v>
@@ -15326,7 +15323,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="55" t="s">
         <v>38</v>
@@ -15350,7 +15347,7 @@
     <row r="42" spans="1:9">
       <c r="A42" s="55"/>
       <c r="B42" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" s="56">
         <v>14.407999999999998</v>
@@ -15374,10 +15371,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="56"/>
       <c r="D43" s="56">
@@ -15408,7 +15405,7 @@
     </row>
     <row r="45" spans="1:9" ht="16" thickBot="1">
       <c r="A45" s="57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="55"/>
       <c r="C45" s="58">
@@ -15455,13 +15452,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -15734,29 +15731,29 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -15766,7 +15763,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="55" t="s">
         <v>2</v>
@@ -15789,7 +15786,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="55" t="s">
         <v>3</v>
@@ -15812,7 +15809,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="55" t="s">
         <v>4</v>
@@ -15835,7 +15832,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="55" t="s">
         <v>5</v>
@@ -15858,7 +15855,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="55" t="s">
         <v>6</v>
@@ -15881,7 +15878,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="55" t="s">
         <v>7</v>
@@ -15904,7 +15901,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="55" t="s">
         <v>8</v>
@@ -15927,7 +15924,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="55" t="s">
         <v>9</v>
@@ -15950,7 +15947,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="55" t="s">
         <v>10</v>
@@ -15973,7 +15970,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="55" t="s">
         <v>11</v>
@@ -15996,7 +15993,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="55" t="s">
         <v>12</v>
@@ -16019,7 +16016,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="55" t="s">
         <v>13</v>
@@ -16042,7 +16039,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="55" t="s">
         <v>14</v>
@@ -16065,7 +16062,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="55" t="s">
         <v>16</v>
@@ -16088,7 +16085,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="55" t="s">
         <v>17</v>
@@ -16111,7 +16108,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="55" t="s">
         <v>18</v>
@@ -16134,7 +16131,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="55" t="s">
         <v>19</v>
@@ -16157,7 +16154,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="55" t="s">
         <v>20</v>
@@ -16180,7 +16177,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="55" t="s">
         <v>21</v>
@@ -16203,7 +16200,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="55" t="s">
         <v>22</v>
@@ -16226,7 +16223,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="55" t="s">
         <v>23</v>
@@ -16249,7 +16246,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="55" t="s">
         <v>24</v>
@@ -16272,7 +16269,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="55" t="s">
         <v>0</v>
@@ -16295,7 +16292,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>25</v>
@@ -16318,7 +16315,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="55" t="s">
         <v>26</v>
@@ -16341,7 +16338,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="55" t="s">
         <v>27</v>
@@ -16368,7 +16365,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="55" t="s">
         <v>28</v>
@@ -16391,7 +16388,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="55" t="s">
         <v>29</v>
@@ -16414,7 +16411,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="55" t="s">
         <v>30</v>
@@ -16437,7 +16434,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="55" t="s">
         <v>31</v>
@@ -16460,7 +16457,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="55" t="s">
         <v>32</v>
@@ -16483,7 +16480,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="55" t="s">
         <v>33</v>
@@ -16506,7 +16503,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="55" t="s">
         <v>34</v>
@@ -16529,7 +16526,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="55" t="s">
         <v>35</v>
@@ -16563,10 +16560,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="56">
         <v>11.247999999999998</v>
@@ -16590,10 +16587,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="56"/>
       <c r="D39" s="56">
@@ -16613,7 +16610,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" s="55" t="s">
         <v>37</v>
@@ -16636,7 +16633,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="55" t="s">
         <v>38</v>
@@ -16660,7 +16657,7 @@
     <row r="42" spans="1:9">
       <c r="A42" s="55"/>
       <c r="B42" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" s="56">
         <v>14.414999999999996</v>
@@ -16684,10 +16681,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="56"/>
       <c r="D43" s="56">
@@ -16718,7 +16715,7 @@
     </row>
     <row r="45" spans="1:9" ht="16" thickBot="1">
       <c r="A45" s="57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="55"/>
       <c r="C45" s="58">
@@ -16760,29 +16757,29 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -16792,7 +16789,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>2</v>
@@ -17428,7 +17425,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="55" t="s">
         <v>32</v>
@@ -17451,7 +17448,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="55" t="s">
         <v>33</v>
@@ -17474,7 +17471,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="55" t="s">
         <v>34</v>
@@ -17497,7 +17494,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="55" t="s">
         <v>35</v>
@@ -17531,10 +17528,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="56">
         <v>11.247999999999999</v>
@@ -17558,10 +17555,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="56"/>
       <c r="D39" s="56">
@@ -17581,7 +17578,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" s="55" t="s">
         <v>37</v>
@@ -17608,7 +17605,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="55" t="s">
         <v>38</v>
@@ -17632,7 +17629,7 @@
     <row r="42" spans="1:9">
       <c r="A42" s="55"/>
       <c r="B42" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" s="56">
         <v>14.414999999999997</v>
@@ -17656,10 +17653,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="56"/>
       <c r="D43" s="56">
@@ -17690,7 +17687,7 @@
     </row>
     <row r="45" spans="1:9" ht="16" thickBot="1">
       <c r="A45" s="57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="55"/>
       <c r="C45" s="58">
@@ -17732,29 +17729,29 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -17764,7 +17761,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>2</v>
@@ -18400,7 +18397,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="55" t="s">
         <v>32</v>
@@ -18423,7 +18420,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="55" t="s">
         <v>33</v>
@@ -18446,7 +18443,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="55" t="s">
         <v>34</v>
@@ -18469,7 +18466,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="55" t="s">
         <v>35</v>
@@ -18503,10 +18500,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="56">
         <v>11.682</v>
@@ -18530,10 +18527,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="56"/>
       <c r="D39" s="56">
@@ -18553,7 +18550,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" s="55" t="s">
         <v>37</v>
@@ -18580,7 +18577,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="55" t="s">
         <v>38</v>
@@ -18608,7 +18605,7 @@
     <row r="42" spans="1:9">
       <c r="A42" s="55"/>
       <c r="B42" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" s="56">
         <v>16.533999999999995</v>
@@ -18632,10 +18629,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="56"/>
       <c r="D43" s="56">
@@ -18666,7 +18663,7 @@
     </row>
     <row r="45" spans="1:9" ht="16" thickBot="1">
       <c r="A45" s="57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="55"/>
       <c r="C45" s="58">
@@ -18708,29 +18705,29 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -18748,7 +18745,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>2</v>
@@ -19658,7 +19655,7 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="55" t="s">
         <v>32</v>
@@ -19690,7 +19687,7 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="55" t="s">
         <v>33</v>
@@ -19722,7 +19719,7 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="55" t="s">
         <v>34</v>
@@ -19754,7 +19751,7 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="55" t="s">
         <v>35</v>
@@ -19806,10 +19803,10 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="56">
         <v>14.660999999999998</v>
@@ -19842,10 +19839,10 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="56"/>
       <c r="D39" s="56">
@@ -19874,7 +19871,7 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" s="55" t="s">
         <v>37</v>
@@ -19910,7 +19907,7 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="55" t="s">
         <v>38</v>
@@ -19947,7 +19944,7 @@
     <row r="42" spans="1:19">
       <c r="A42" s="55"/>
       <c r="B42" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" s="56">
         <v>17.236999999999991</v>
@@ -19980,7 +19977,7 @@
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="55"/>
       <c r="C43" s="56"/>
@@ -20002,7 +19999,7 @@
     </row>
     <row r="44" spans="1:19" ht="16" thickBot="1">
       <c r="A44" s="57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" s="55"/>
       <c r="C44" s="58">
@@ -20053,29 +20050,29 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -20093,7 +20090,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>2</v>
@@ -20733,7 +20730,7 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="55" t="s">
         <v>32</v>
@@ -20756,7 +20753,7 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="55" t="s">
         <v>33</v>
@@ -20779,7 +20776,7 @@
     </row>
     <row r="35" spans="1:20" ht="15" customHeight="1">
       <c r="A35" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="55" t="s">
         <v>34</v>
@@ -20802,7 +20799,7 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="55" t="s">
         <v>35</v>
@@ -20845,10 +20842,10 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="56">
         <v>27.0166</v>
@@ -20872,10 +20869,10 @@
     </row>
     <row r="39" spans="1:20" ht="15" customHeight="1">
       <c r="A39" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="56"/>
       <c r="D39" s="56">
@@ -20906,7 +20903,7 @@
     </row>
     <row r="40" spans="1:20" ht="15" customHeight="1">
       <c r="A40" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" s="55" t="s">
         <v>37</v>
@@ -20944,7 +20941,7 @@
     </row>
     <row r="41" spans="1:20" ht="15" customHeight="1">
       <c r="A41" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="55" t="s">
         <v>38</v>
@@ -20983,7 +20980,7 @@
     <row r="42" spans="1:20" ht="15" customHeight="1">
       <c r="A42" s="55"/>
       <c r="B42" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" s="56">
         <v>23.699400000000004</v>
@@ -21018,7 +21015,7 @@
     </row>
     <row r="43" spans="1:20" ht="16" thickBot="1">
       <c r="A43" s="57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="55"/>
       <c r="C43" s="58">
@@ -21084,37 +21081,37 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M39" activeCellId="1" sqref="B39 M39"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -21979,7 +21976,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="4">
         <v>15.360000014305115</v>
@@ -22071,7 +22068,7 @@
     </row>
     <row r="44" spans="1:9" ht="16" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C44" s="6">
         <v>47.832999765872955</v>
@@ -22095,6 +22092,7 @@
     <row r="45" spans="1:9" ht="16" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -22103,37 +22101,37 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -23009,7 +23007,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="4">
         <v>15.840000003576279</v>
@@ -23084,7 +23082,7 @@
     <row r="41" spans="1:9">
       <c r="A41" s="8"/>
       <c r="B41" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="4">
         <v>6.0400002002716064</v>
@@ -23144,7 +23142,7 @@
     </row>
     <row r="44" spans="1:9" ht="16" thickBot="1">
       <c r="A44" s="10" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C44" s="6">
         <v>53.872999966144562</v>
@@ -23185,29 +23183,29 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -23217,7 +23215,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -24080,10 +24078,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="4">
         <v>15.840000003576279</v>
@@ -24158,7 +24156,7 @@
     <row r="41" spans="1:9">
       <c r="A41" s="8"/>
       <c r="B41" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="4">
         <v>6.0400002002716064</v>
@@ -24218,7 +24216,7 @@
     </row>
     <row r="44" spans="1:9" ht="16" thickBot="1">
       <c r="A44" s="10" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C44" s="6">
         <v>53.872999966144562</v>
@@ -24259,29 +24257,29 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -24291,7 +24289,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>2</v>
@@ -25112,10 +25110,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="18">
         <v>15.572999805212021</v>
@@ -25187,7 +25185,7 @@
     <row r="41" spans="1:9">
       <c r="A41" s="8"/>
       <c r="B41" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="18">
         <v>6.0400002002716064</v>
@@ -25237,7 +25235,7 @@
     </row>
     <row r="44" spans="1:9" ht="16" thickBot="1">
       <c r="A44" s="20" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C44" s="19">
         <v>53.605999767780304</v>
@@ -25278,29 +25276,29 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -25310,7 +25308,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -26173,10 +26171,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="4">
         <v>15.412999823689461</v>
@@ -26251,7 +26249,7 @@
     <row r="41" spans="1:9">
       <c r="A41" s="25"/>
       <c r="B41" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="4">
         <v>0</v>
@@ -26311,7 +26309,7 @@
     </row>
     <row r="44" spans="1:9" ht="16" thickBot="1">
       <c r="A44" s="10" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="6">
@@ -26353,29 +26351,29 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -26385,7 +26383,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -27240,10 +27238,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="4">
         <v>14.562999814748764</v>
@@ -27318,7 +27316,7 @@
     <row r="41" spans="1:9">
       <c r="A41" s="8"/>
       <c r="B41" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="4">
         <v>0</v>
@@ -27370,7 +27368,7 @@
     </row>
     <row r="44" spans="1:9" ht="16" thickBot="1">
       <c r="A44" s="10" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C44" s="6">
         <v>55.698999106884003</v>
@@ -27403,37 +27401,37 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -27443,7 +27441,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -28613,10 +28611,10 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="4">
         <v>7.8630000054836273</v>
@@ -28718,7 +28716,7 @@
     <row r="41" spans="1:19">
       <c r="A41" s="8"/>
       <c r="B41" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="4">
         <v>0</v>
@@ -28797,7 +28795,7 @@
     </row>
     <row r="44" spans="1:19" ht="16" thickBot="1">
       <c r="A44" s="10" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C44" s="6">
         <v>44.405999392271042</v>
